--- a/xlsx/无政府主义_intext.xlsx
+++ b/xlsx/无政府主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="662">
   <si>
     <t>无政府主义</t>
   </si>
@@ -35,19 +35,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>佛教無政府主義</t>
+    <t>佛教无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
@@ -59,61 +56,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府女性主義</t>
+    <t>无政府女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>綠色無政府主義</t>
+    <t>绿色无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人無政府主義</t>
+    <t>个人无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左翼無政府主義</t>
+    <t>左翼无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%92%8C%E5%B9%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府和平主義</t>
+    <t>无政府和平主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會無政府主義</t>
+    <t>社会无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B4%A0%E9%A3%9F%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>純素食無政府主義</t>
+    <t>纯素食无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%B8%B6%E5%BD%A2%E5%AE%B9%E8%A9%9E%E7%9A%84%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>不帶形容詞的無政府主義</t>
+    <t>不带形容词的无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E7%8A%AF%E4%BF%9D%E9%99%A9</t>
@@ -125,19 +122,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A1%8A</t>
   </si>
   <si>
-    <t>黑塊</t>
+    <t>黑块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
   </si>
   <si>
-    <t>階級鬥爭</t>
+    <t>阶级斗争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%A4%BE</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>直接行動</t>
+    <t>直接行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>互不侵犯原則</t>
+    <t>互不侵犯原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%B8%AD%E5%BF%83%E6%B3%95%E5%BE%8B%E7%B3%BB%E7%BB%9F</t>
@@ -197,43 +194,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AE%A3%E5%82%B3</t>
   </si>
   <si>
-    <t>行動宣傳</t>
+    <t>行动宣传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生態學</t>
+    <t>社会生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%88%88%E5%BE%B7%E6%BA%AB</t>
   </si>
   <si>
-    <t>威廉·戈德溫</t>
+    <t>威廉·戈德温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%C2%B7%E6%B2%83%E5%80%AB</t>
   </si>
   <si>
-    <t>約書亞·沃倫</t>
+    <t>约书亚·沃伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E6%96%BD%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>麥克斯·施蒂納</t>
+    <t>麦克斯·施蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE-%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%AD%AF%E6%9D%B1</t>
   </si>
   <si>
-    <t>皮埃爾-約瑟夫·普魯東</t>
+    <t>皮埃尔-约瑟夫·普鲁东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E5%B7%B4%E6%9E%AF%E5%AE%81</t>
@@ -245,25 +242,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%B6%AD%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·戴維·梭羅</t>
+    <t>亨利·戴维·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A4%AB%C2%B7%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>列夫·托爾斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%85%8B%E9%AD%AF%E6%B3%A1%E7%89%B9%E9%87%91</t>
   </si>
   <si>
-    <t>彼得·克魯泡特金</t>
+    <t>彼得·克鲁泡特金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%C2%B7%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>班傑明·塔克</t>
+    <t>班杰明·塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%8E%9B%C2%B7%E6%88%88%E5%B0%94%E5%BE%B7%E6%9B%BC</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E8%B2%9D%E5%85%8B%E6%9B%BC</t>
   </si>
   <si>
-    <t>亞歷山大·貝克曼</t>
+    <t>亚历山大·贝克曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89%E4%B8%8E%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94%E7%AC%AC%E4%B8%89%E6%AC%A1%E9%83%A8%E9%95%B7%E7%B4%9A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>世界貿易組織第三次部長級會議</t>
+    <t>世界贸易组织第三次部长级会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E7%B2%95%E4%BA%8B%E4%BB%B6</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>國際勞動節</t>
+    <t>国际劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
@@ -347,19 +344,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>免費素食主義</t>
+    <t>免费素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國際歌</t>
+    <t>国际歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>激進環境保護主義</t>
+    <t>激进环境保护主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C%E7%A4%BE</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>自由學校</t>
+    <t>自由学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>禮物經濟</t>
+    <t>礼物经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國無政府主義</t>
+    <t>中国无政府主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_anarcho-punk_bands</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反資本主義</t>
+    <t>反资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反共產主義</t>
+    <t>反共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B3%95%E8%A5%BF%E6%96%AF</t>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>勞工運動</t>
+    <t>劳工运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -515,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Anarchism_sidebar</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>無政府狀態</t>
+    <t>无政府状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%97%A0%E4%B8%BB%E4%B9%89</t>
@@ -617,37 +614,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%8F%B2</t>
@@ -659,9 +656,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E5%BA%93%E7%BD%97%E6%96%AF</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>利己主義</t>
+    <t>利己主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7</t>
@@ -815,9 +809,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%89%A9%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>礼物经济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
@@ -833,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%93%B2%E5%AD%B8%E5%8F%B2_(%E7%BE%85%E7%B4%A0)</t>
   </si>
   <si>
-    <t>西方哲學史 (羅素)</t>
+    <t>西方哲学史 (罗素)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%81%B5</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
@@ -869,9 +860,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%88%88%E5%BE%B7%E6%B8%A9</t>
   </si>
   <si>
-    <t>威廉·戈德温</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%BC%A6%E4%B9%90%E5%9B%A2</t>
   </si>
   <si>
@@ -881,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BC%A6%E7%89%B9%E6%B4%BE</t>
@@ -905,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%A1%91%E5%BE%B7%C2%B7%E6%96%AF%E6%B3%A2%E7%B4%8D</t>
   </si>
   <si>
-    <t>萊桑德·斯波納</t>
+    <t>莱桑德·斯波纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%B0%94%E5%BE%B7</t>
@@ -923,19 +911,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E7%9A%AE%E7%88%BE%C2%B7%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>史蒂芬·皮爾·安德魯斯</t>
+    <t>史蒂芬·皮尔·安德鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%BB%B4%C2%B7%E6%A2%AD%E7%BD%97</t>
   </si>
   <si>
-    <t>亨利·戴维·梭罗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
@@ -953,19 +938,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%BF%AB%E6%80%A7%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>強迫性壟斷</t>
+    <t>强迫性垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%80%8B%E4%BA%BA%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國個人無政府主義</t>
+    <t>美国个人无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A3%AB%E5%BF%8C%E9%85%92%E5%8F%8D%E6%8A%97</t>
@@ -977,51 +962,48 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84%E8%AB%96</t>
   </si>
   <si>
-    <t>社會契約論</t>
+    <t>社会契约论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>喬治·華盛頓</t>
+    <t>乔治·华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>本傑明·塔克</t>
+    <t>本杰明·塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E4%B9%A6%E4%BA%9A%C2%B7%E6%B2%83%E4%BC%A6</t>
   </si>
   <si>
-    <t>约书亚·沃伦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%AC%A7%E6%96%87</t>
   </si>
   <si>
@@ -1031,13 +1013,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社群主義</t>
+    <t>社群主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%B2%9D%E5%A5%87%E5%BE%B7%C2%B7%E8%91%9B%E6%9E%97</t>
   </si>
   <si>
-    <t>威廉·貝奇德·葛林</t>
+    <t>威廉·贝奇德·葛林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -1049,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>智慧財產權</t>
+    <t>智慧财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -1061,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -1079,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E5%85%B0%E5%BE%B7</t>
@@ -1109,15 +1091,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E5%BE%B7%C2%B7%E8%8E%AB%E5%88%A9%E7%B4%8D%E9%87%8C</t>
   </si>
   <si>
-    <t>古斯塔夫·德·莫利納里</t>
+    <t>古斯塔夫·德·莫利纳里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94-%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%B2%81%E4%B8%9C</t>
   </si>
   <si>
-    <t>皮埃尔-约瑟夫·普鲁东</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E4%B9%88%E6%98%AF%E6%89%80%E6%9C%89%E6%9D%83%EF%BC%9F</t>
   </si>
   <si>
@@ -1133,9 +1112,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>无政府共产主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
@@ -1157,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
@@ -1175,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>科學社會主義</t>
+    <t>科学社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
@@ -1199,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -1211,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E7%BE%85%E6%96%AF%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄羅斯大革命</t>
+    <t>1917年俄罗斯大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%80%AB%E6%96%AF%E5%A1%94%E5%8F%9B%E8%AE%8A</t>
   </si>
   <si>
-    <t>克倫斯塔叛變</t>
+    <t>克伦斯塔叛变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1247,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B0%94%E9%A9%AC_(%E6%84%8F%E5%A4%A7%E5%88%A9)</t>
@@ -1271,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新法西斯主義</t>
+    <t>新法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B7%E4%BA%82</t>
   </si>
   <si>
-    <t>騷亂</t>
+    <t>骚乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E5%AE%A2</t>
@@ -1289,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>暴動</t>
+    <t>暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
@@ -1313,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%9A%B4%E5%8A%9B%E6%8A%B5%E6%8A%97</t>
@@ -1325,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
@@ -1337,13 +1313,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
+    <t>耶稣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E4%BC%9A</t>
@@ -1355,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%B8%BB%E4%B9%89</t>
@@ -1367,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
   </si>
   <si>
-    <t>稅賦</t>
+    <t>税赋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8A%E5%A4%AA%E8%99%9A</t>
@@ -1391,31 +1367,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B0%E6%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新異教主義</t>
+    <t>新异教主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境保護</t>
+    <t>环境保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>激進女性主義</t>
+    <t>激进女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%B3%A2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第二波女性主義</t>
+    <t>第二波女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%BA%A7%E5%88%B6%E5%BA%A6</t>
@@ -1433,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態女性主義</t>
+    <t>生态女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%C2%B7%E6%B2%83%E6%96%AF%E9%80%9A%E5%85%8B%E6%8B%89%E5%A4%AB%E7%89%B9</t>
@@ -1445,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態無政府主義</t>
+    <t>生态无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E4%BC%98%E5%85%88%EF%BC%81</t>
@@ -1475,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E8%A1%97%E9%81%93</t>
   </si>
   <si>
-    <t>收復街道</t>
+    <t>收复街道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
@@ -1487,19 +1463,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%C2%B7%E5%BE%B7%E5%8B%92%E8%8C%B2</t>
   </si>
   <si>
-    <t>吉爾·德勒茲</t>
+    <t>吉尔·德勒兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
@@ -1523,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9C%8B%E9%A6%96%E8%85%A6%E9%AB%98%E5%B3%B0%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>八國首腦高峰會議</t>
+    <t>八国首脑高峰会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>世界經濟論壇</t>
+    <t>世界经济论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -1541,13 +1517,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文化帝國主義</t>
+    <t>文化帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E9%A3%9F%E7%89%A9%E4%B8%8D%E8%A6%81%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>要食物不要炸彈</t>
+    <t>要食物不要炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
@@ -1595,13 +1571,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%A7%86%C2%B7%E4%B9%94%E5%A7%86%E6%96%AF%E5%9F%BA</t>
@@ -1613,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -1631,31 +1607,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%A5%E8%98%87%E6%8B%89%C2%B7%E5%8B%92%E7%91%B0%E6%81%A9</t>
   </si>
   <si>
-    <t>娥蘇拉·勒瑰恩</t>
+    <t>娥苏拉·勒瑰恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E6%B4%A5%E6%81%A9</t>
   </si>
   <si>
-    <t>霍華德·津恩</t>
+    <t>霍华德·津恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9B%BC%C2%B7%E5%9F%BA%E7%88%BE</t>
   </si>
   <si>
-    <t>吉曼·基爾</t>
+    <t>吉曼·基尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -1667,13 +1643,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%AC%BD%E8%87%AA%E7%94%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>克里斯欽自由城</t>
+    <t>克里斯钦自由城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E5%85%8B%E6%96%87%E5%8C%96</t>
@@ -1691,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
+    <t>极权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
@@ -1721,21 +1697,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>无政府工团主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1745,25 +1715,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会民主主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態社會主義</t>
+    <t>生态社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府社會主義</t>
+    <t>无政府社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -1787,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
@@ -1811,19 +1778,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由保守主義</t>
+    <t>自由保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族保守主義</t>
+    <t>民族保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -1841,13 +1808,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
@@ -1871,19 +1838,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>法西斯主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治意識形態列表</t>
+    <t>政治意识形态列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -1925,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9%E5%92%8C%E5%B0%BC%E9%87%87</t>
   </si>
   <si>
-    <t>無政府主義和尼采</t>
+    <t>无政府主义和尼采</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89%E5%9B%BD%E9%99%85</t>
@@ -1985,9 +1949,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BD%97%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·罗斯巴德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Friedrich_Engels</t>
   </si>
   <si>
@@ -2015,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2033,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2468,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>192</v>
@@ -2494,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -2523,10 +2484,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>45</v>
@@ -2552,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>12</v>
@@ -2581,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>33</v>
@@ -2610,10 +2571,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>29</v>
@@ -2639,10 +2600,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -2668,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>47</v>
@@ -2697,10 +2658,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
@@ -2726,10 +2687,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
@@ -2755,10 +2716,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>44</v>
@@ -2784,10 +2745,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>20</v>
@@ -2813,10 +2774,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2842,10 +2803,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2871,10 +2832,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2900,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>278</v>
@@ -2929,10 +2890,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2958,10 +2919,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2987,10 +2948,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -3016,10 +2977,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3045,10 +3006,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3074,10 +3035,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3103,10 +3064,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -3132,10 +3093,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3161,10 +3122,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3190,10 +3151,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>9</v>
@@ -3219,10 +3180,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -3248,10 +3209,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3277,10 +3238,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -3306,10 +3267,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3335,10 +3296,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3364,10 +3325,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -3393,10 +3354,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3422,10 +3383,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -3451,10 +3412,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3480,10 +3441,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3509,10 +3470,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3538,10 +3499,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -3567,10 +3528,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -3596,10 +3557,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3625,10 +3586,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -3654,10 +3615,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3683,10 +3644,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3712,10 +3673,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3741,10 +3702,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
         <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
       </c>
       <c r="G47" t="n">
         <v>23</v>
@@ -3770,10 +3731,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3799,10 +3760,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3828,10 +3789,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3857,10 +3818,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3886,10 +3847,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3915,10 +3876,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3944,10 +3905,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3973,10 +3934,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4002,10 +3963,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4031,10 +3992,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4060,10 +4021,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4089,10 +4050,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4118,10 +4079,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4147,10 +4108,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4176,10 +4137,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4205,10 +4166,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>12</v>
@@ -4234,10 +4195,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4263,10 +4224,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4292,10 +4253,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4321,10 +4282,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4350,10 +4311,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4379,10 +4340,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4408,10 +4369,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -4437,10 +4398,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4466,10 +4427,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4495,10 +4456,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4524,10 +4485,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>18</v>
@@ -4553,10 +4514,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>7</v>
@@ -4582,10 +4543,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4611,10 +4572,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4640,10 +4601,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4669,10 +4630,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4698,10 +4659,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4727,10 +4688,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4756,10 +4717,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4785,10 +4746,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -4814,10 +4775,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4843,10 +4804,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -4872,10 +4833,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4901,10 +4862,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>10</v>
@@ -4930,10 +4891,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4959,10 +4920,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4988,10 +4949,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>9</v>
@@ -5017,10 +4978,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5046,10 +5007,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>352</v>
@@ -5075,10 +5036,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5104,10 +5065,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5133,10 +5094,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>54</v>
@@ -5162,10 +5123,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5191,10 +5152,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5220,10 +5181,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5249,10 +5210,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5278,10 +5239,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5307,10 +5268,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5336,10 +5297,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>32</v>
@@ -5365,10 +5326,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>18</v>
@@ -5394,10 +5355,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>31</v>
@@ -5423,10 +5384,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
@@ -5452,10 +5413,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -5481,10 +5442,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5510,10 +5471,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5539,10 +5500,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5568,10 +5529,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5597,10 +5558,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5626,10 +5587,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5655,10 +5616,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5684,10 +5645,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5713,10 +5674,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5742,10 +5703,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5771,10 +5732,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5800,10 +5761,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5829,10 +5790,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5858,10 +5819,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5887,10 +5848,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5916,10 +5877,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5945,10 +5906,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5974,10 +5935,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6003,10 +5964,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6032,10 +5993,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6061,10 +6022,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6090,10 +6051,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>8</v>
@@ -6119,10 +6080,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6148,10 +6109,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>6</v>
@@ -6177,10 +6138,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6206,10 +6167,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6235,10 +6196,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6264,10 +6225,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6293,10 +6254,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6322,10 +6283,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6351,10 +6312,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6380,10 +6341,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>6</v>
@@ -6409,10 +6370,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6438,10 +6399,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6467,10 +6428,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6496,10 +6457,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>5</v>
@@ -6525,10 +6486,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6554,10 +6515,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6583,10 +6544,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6612,10 +6573,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6641,10 +6602,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6670,10 +6631,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6699,10 +6660,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6728,10 +6689,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6757,10 +6718,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6786,10 +6747,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
         <v>19</v>
-      </c>
-      <c r="F152" t="s">
-        <v>20</v>
       </c>
       <c r="G152" t="n">
         <v>19</v>
@@ -6815,10 +6776,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>25</v>
@@ -6844,10 +6805,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6873,10 +6834,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6902,10 +6863,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6931,10 +6892,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6960,10 +6921,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6989,10 +6950,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7018,10 +6979,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7047,10 +7008,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -7076,10 +7037,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7105,10 +7066,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7134,10 +7095,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7163,10 +7124,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7192,10 +7153,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7221,10 +7182,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7250,10 +7211,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7279,10 +7240,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7308,10 +7269,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7337,10 +7298,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>67</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7366,10 +7327,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7395,10 +7356,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7424,10 +7385,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7453,10 +7414,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>9</v>
@@ -7482,10 +7443,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7511,10 +7472,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7540,10 +7501,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>40</v>
@@ -7569,10 +7530,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>6</v>
@@ -7598,10 +7559,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -7627,10 +7588,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7656,10 +7617,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7685,10 +7646,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7714,10 +7675,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7743,10 +7704,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7772,10 +7733,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7801,10 +7762,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>71</v>
       </c>
       <c r="G187" t="n">
         <v>5</v>
@@ -7830,10 +7791,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7859,10 +7820,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7888,10 +7849,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7917,10 +7878,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7946,10 +7907,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -7975,10 +7936,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -8004,10 +7965,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8033,10 +7994,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>12</v>
@@ -8062,10 +8023,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>12</v>
@@ -8091,10 +8052,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8120,10 +8081,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8149,10 +8110,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8178,10 +8139,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8207,10 +8168,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8236,10 +8197,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8265,10 +8226,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8294,10 +8255,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>26</v>
+      </c>
+      <c r="F204" t="s">
         <v>27</v>
-      </c>
-      <c r="F204" t="s">
-        <v>28</v>
       </c>
       <c r="G204" t="n">
         <v>12</v>
@@ -8323,10 +8284,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>104</v>
+      </c>
+      <c r="F205" t="s">
         <v>105</v>
-      </c>
-      <c r="F205" t="s">
-        <v>106</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8352,10 +8313,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>106</v>
+      </c>
+      <c r="F206" t="s">
         <v>107</v>
-      </c>
-      <c r="F206" t="s">
-        <v>108</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8381,10 +8342,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8410,10 +8371,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8439,10 +8400,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8468,10 +8429,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8497,10 +8458,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8526,10 +8487,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -8555,10 +8516,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8584,10 +8545,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>12</v>
@@ -8613,10 +8574,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8642,10 +8603,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8671,10 +8632,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8700,10 +8661,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8729,10 +8690,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8758,10 +8719,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8787,10 +8748,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>6</v>
@@ -8816,10 +8777,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8845,10 +8806,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8874,10 +8835,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8903,10 +8864,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8932,10 +8893,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
         <v>11</v>
-      </c>
-      <c r="F226" t="s">
-        <v>12</v>
       </c>
       <c r="G226" t="n">
         <v>5</v>
@@ -8961,10 +8922,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8990,10 +8951,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9019,10 +8980,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9048,10 +9009,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9077,10 +9038,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9106,10 +9067,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9135,10 +9096,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9164,10 +9125,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9193,10 +9154,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9222,10 +9183,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9251,10 +9212,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9280,10 +9241,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9309,10 +9270,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9338,10 +9299,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9367,10 +9328,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" t="s">
         <v>15</v>
-      </c>
-      <c r="F241" t="s">
-        <v>16</v>
       </c>
       <c r="G241" t="n">
         <v>12</v>
@@ -9396,10 +9357,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9425,10 +9386,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -9454,10 +9415,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9483,10 +9444,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9512,10 +9473,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9541,10 +9502,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -9570,10 +9531,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9599,10 +9560,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" t="s">
         <v>17</v>
-      </c>
-      <c r="F249" t="s">
-        <v>18</v>
       </c>
       <c r="G249" t="n">
         <v>5</v>
@@ -9628,10 +9589,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9657,10 +9618,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9686,10 +9647,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9715,10 +9676,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9744,10 +9705,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9773,10 +9734,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9802,10 +9763,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9831,10 +9792,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9860,10 +9821,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9889,10 +9850,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9918,10 +9879,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9947,10 +9908,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9976,10 +9937,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10005,10 +9966,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10034,10 +9995,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10063,10 +10024,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G265" t="n">
         <v>6</v>
@@ -10092,10 +10053,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10121,10 +10082,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10150,10 +10111,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10179,10 +10140,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10208,10 +10169,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10237,10 +10198,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10266,10 +10227,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10295,10 +10256,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10324,10 +10285,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10353,10 +10314,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10382,10 +10343,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" t="s">
         <v>23</v>
-      </c>
-      <c r="F276" t="s">
-        <v>24</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10411,10 +10372,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10440,10 +10401,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10469,10 +10430,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10498,10 +10459,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10527,10 +10488,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10556,10 +10517,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10585,10 +10546,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10614,10 +10575,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>27</v>
@@ -10643,10 +10604,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10672,10 +10633,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10701,10 +10662,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10730,10 +10691,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10759,10 +10720,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10788,10 +10749,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10817,10 +10778,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10846,10 +10807,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10875,10 +10836,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293" t="s">
         <v>17</v>
-      </c>
-      <c r="F293" t="s">
-        <v>18</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10904,10 +10865,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10933,10 +10894,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10962,10 +10923,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10991,10 +10952,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11020,10 +10981,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>27</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11049,10 +11010,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11078,10 +11039,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>372</v>
       </c>
       <c r="G300" t="n">
         <v>4</v>
@@ -11107,10 +11068,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11136,10 +11097,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>374</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11165,10 +11126,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11194,10 +11155,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11223,10 +11184,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>166</v>
+      </c>
+      <c r="F305" t="s">
         <v>167</v>
-      </c>
-      <c r="F305" t="s">
-        <v>168</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11252,10 +11213,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11281,10 +11242,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G307" t="n">
         <v>4</v>
@@ -11310,10 +11271,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11339,10 +11300,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11368,10 +11329,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F310" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11397,10 +11358,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11426,10 +11387,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F312" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11455,10 +11416,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F313" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11484,10 +11445,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F314" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11513,10 +11474,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F315" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11542,10 +11503,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F316" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11571,10 +11532,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11600,10 +11561,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F318" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11629,10 +11590,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11658,10 +11619,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11687,10 +11648,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11716,10 +11677,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11745,10 +11706,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11774,10 +11735,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>618</v>
+        <v>402</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11803,10 +11764,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F325" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11832,10 +11793,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -11861,10 +11822,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -11890,10 +11851,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>122</v>
+      </c>
+      <c r="F328" t="s">
         <v>123</v>
-      </c>
-      <c r="F328" t="s">
-        <v>124</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11919,10 +11880,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11948,10 +11909,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11977,10 +11938,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12006,10 +11967,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12035,10 +11996,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>96</v>
+      </c>
+      <c r="F333" t="s">
         <v>97</v>
-      </c>
-      <c r="F333" t="s">
-        <v>98</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12064,10 +12025,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>100</v>
+      </c>
+      <c r="F334" t="s">
         <v>101</v>
-      </c>
-      <c r="F334" t="s">
-        <v>102</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12093,10 +12054,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>92</v>
+      </c>
+      <c r="F335" t="s">
         <v>93</v>
-      </c>
-      <c r="F335" t="s">
-        <v>94</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12122,10 +12083,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12151,10 +12112,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F337" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12180,10 +12141,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F338" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12209,10 +12170,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F339" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12238,10 +12199,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F340" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12267,10 +12228,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F341" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12296,10 +12257,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F342" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12325,10 +12286,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F343" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12354,10 +12315,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F344" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12383,10 +12344,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F345" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12412,10 +12373,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>128</v>
+      </c>
+      <c r="F346" t="s">
         <v>129</v>
-      </c>
-      <c r="F346" t="s">
-        <v>130</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12441,10 +12402,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G347" t="n">
         <v>6</v>
@@ -12470,10 +12431,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>89</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12499,10 +12460,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12528,10 +12489,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12557,10 +12518,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -12586,10 +12547,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12615,10 +12576,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G353" t="n">
         <v>3</v>
@@ -12644,10 +12605,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12673,10 +12634,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12702,10 +12663,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12731,10 +12692,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F357" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
